--- a/bead_dynamics.xlsx
+++ b/bead_dynamics.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Obert\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Obert\Documents\robot-autonomy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7505372A-9944-4ED6-8169-5AE6469B9817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065444B2-CFAE-4F89-A305-8F1F246A992C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6670FF9C-7E79-4690-BBD2-9288531483BE}"/>
   </bookViews>
@@ -1637,7 +1637,7 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
